--- a/Варианты/8 вариант/22.xlsx
+++ b/Варианты/8 вариант/22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelo\OneDrive\Рабочий стол\111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\EGE\Варианты\8 вариант\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE624F-095A-418B-915E-5A0FEBB9C6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,6 +119,1388 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>915865</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>249116</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2718288" y="161192"/>
+          <a:ext cx="3868616" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>101</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244519</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>233857</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>182415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5716467" y="361293"/>
+          <a:ext cx="817028" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>102</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12351</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6614537" y="353786"/>
+          <a:ext cx="259792" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="300"/>
+            <a:t>103</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2816</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6870351" y="752052"/>
+          <a:ext cx="3018758" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>104</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6909</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886680" y="359229"/>
+          <a:ext cx="3585378" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>105</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25489</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9384</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6876920" y="554984"/>
+          <a:ext cx="1363378" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>106</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4094</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>262197</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8235008" y="554796"/>
+          <a:ext cx="1913482" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>107</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>27741</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>17079</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>188984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10465827" y="558362"/>
+          <a:ext cx="265235" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="400"/>
+            <a:t>108</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47448</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15015</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>188984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10761431" y="558362"/>
+          <a:ext cx="519360" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>109</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19332</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3029759" y="959069"/>
+          <a:ext cx="2185625" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>110</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1465</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>182415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6852896" y="1123293"/>
+          <a:ext cx="2731976" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>111</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34311</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Прямоугольник 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5230363" y="932793"/>
+          <a:ext cx="2196511" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>112</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>55331</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>25771</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Прямоугольник 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458555" y="945931"/>
+          <a:ext cx="3832992" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>113</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>233857</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12351</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94492</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая со стрелкой 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6533495" y="442647"/>
+          <a:ext cx="54390" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>249116</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12351</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Прямая со стрелкой 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6573716" y="251209"/>
+          <a:ext cx="40821" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>233857</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Прямая со стрелкой 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6533495" y="449216"/>
+          <a:ext cx="336856" cy="390759"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6909</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая со стрелкой 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6874329" y="441709"/>
+          <a:ext cx="12351" cy="5443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6909</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25489</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Прямая со стрелкой 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858340" y="448090"/>
+          <a:ext cx="18580" cy="194817"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4094</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9384</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Прямая со стрелкой 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8235008" y="642719"/>
+          <a:ext cx="5290" cy="188"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>262197</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>27741</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101061</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая со стрелкой 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10148490" y="642719"/>
+          <a:ext cx="317337" cy="3566"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>27741</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101061</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Прямая со стрелкой 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10423448" y="448090"/>
+          <a:ext cx="42379" cy="198195"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>17079</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47448</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101061</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Прямая со стрелкой 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731062" y="646285"/>
+          <a:ext cx="30369" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19332</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1465</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94492</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Прямая со стрелкой 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5215384" y="1046992"/>
+          <a:ext cx="1637512" cy="164224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19332</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>94492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34311</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120768</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Прямая со стрелкой 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5215384" y="1020716"/>
+          <a:ext cx="14979" cy="26276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>94492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>55331</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Прямая со стрелкой 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7426874" y="1020716"/>
+          <a:ext cx="31681" cy="13138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,21 +1765,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="4" max="70" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -408,9 +1789,185 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO1">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>39</v>
+      </c>
+      <c r="AQ1">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>41</v>
+      </c>
+      <c r="AS1">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>43</v>
+      </c>
+      <c r="AU1">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>45</v>
+      </c>
+      <c r="AW1">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>47</v>
+      </c>
+      <c r="AY1">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>49</v>
+      </c>
+      <c r="BA1">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BC1">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BE1">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>55</v>
+      </c>
+      <c r="BG1">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>57</v>
+      </c>
+      <c r="BI1">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -421,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -432,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -443,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -454,7 +2011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>105</v>
       </c>
@@ -465,7 +2022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>106</v>
       </c>
@@ -476,7 +2033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>107</v>
       </c>
@@ -487,7 +2044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>108</v>
       </c>
@@ -498,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>109</v>
       </c>
@@ -509,7 +2066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>110</v>
       </c>
@@ -520,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>111</v>
       </c>
@@ -531,7 +2088,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>112</v>
       </c>
@@ -542,7 +2099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>113</v>
       </c>
@@ -553,7 +2110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -561,5 +2118,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>